--- a/modules/mermaid-common/src/test/resources/用户导入模板_new.xlsx
+++ b/modules/mermaid-common/src/test/resources/用户导入模板_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hui\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\mermaid-framework-parent\modules\mermaid-common\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAF2D0C-A830-4BF6-B07F-ED20BE46FA7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D729C3-DB70-4B8A-BD63-61A902FCAD1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="29550" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <r>
       <rPr>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>男</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1123456741258</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1245896</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>125478896</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -415,6 +427,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -423,9 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,11 +717,12 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
@@ -719,15 +732,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="93.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -753,18 +766,24 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="8" t="s">
         <v>10</v>
       </c>

--- a/modules/mermaid-common/src/test/resources/用户导入模板_new.xlsx
+++ b/modules/mermaid-common/src/test/resources/用户导入模板_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\mermaid-framework-parent\modules\mermaid-common\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D729C3-DB70-4B8A-BD63-61A902FCAD1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5215DCC1-4F4A-42F3-A68E-B0DA41B3A91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="29550" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="6345" windowWidth="29550" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -248,6 +248,47 @@
   </si>
   <si>
     <t>125478896</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备1</t>
+  </si>
+  <si>
+    <t>设备2</t>
+  </si>
+  <si>
+    <t>2020/01/02</t>
+  </si>
+  <si>
+    <t>设备3</t>
+  </si>
+  <si>
+    <t>设备4</t>
+  </si>
+  <si>
+    <t>1245897</t>
+  </si>
+  <si>
+    <t>125478897</t>
+  </si>
+  <si>
+    <t>1123456741259</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ww1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -328,18 +369,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -355,12 +387,65 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -372,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,28 +470,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -427,17 +506,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,7 +838,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -731,18 +852,19 @@
     <col min="7" max="7" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="93.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="93.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -761,497 +883,563 @@
       <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="H3" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="15">
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/modules/mermaid-common/src/test/resources/用户导入模板_new.xlsx
+++ b/modules/mermaid-common/src/test/resources/用户导入模板_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\mermaid-framework-parent\modules\mermaid-common\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\javaproj\mermaid-framework-parent\modules\mermaid-common\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5215DCC1-4F4A-42F3-A68E-B0DA41B3A91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EDA9BE-57E0-4D7C-9534-BFDEB916D250}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1350" yWindow="6345" windowWidth="29550" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,114 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>用户导入模板</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">注：1.*标内容必填；姓名和手机号不能重复
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.【学历】填写即新增；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.所有用户信息均可在平台内再次进行增删改查；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.此单元格内容不可删除。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5.如果用户已存在，则覆盖原内容</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>主键</t>
   </si>
@@ -236,27 +129,27 @@
   </si>
   <si>
     <t>男</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1123456741258</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1245896</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>125478896</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>设备名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>设备0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>设备1</t>
@@ -281,31 +174,24 @@
   </si>
   <si>
     <t>1123456741259</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ww1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>设备1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -457,13 +343,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,13 +377,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -536,12 +419,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,13 +428,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -847,601 +724,588 @@
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="93.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="C2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="21"/>
       <c r="G4" s="24"/>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="16" t="s">
+      <c r="A5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>18</v>
       </c>
+      <c r="H5" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="16" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
+  <mergeCells count="14">
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
